--- a/DSA/Practice/Copy of Automation - SQL to Excel.xlsx
+++ b/DSA/Practice/Copy of Automation - SQL to Excel.xlsx
@@ -8,14 +8,48 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spgl-my.sharepoint.com/personal/anmole_dewan_spglobal_com/Documents/Documents/GitHub/Data-Science/Assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01510084-ABBD-4F3B-B542-ECB682450F22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{01510084-ABBD-4F3B-B542-ECB682450F22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CD1487F8-AA32-449C-A279-AC46DE142EDC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B519F442-C99C-4170-9901-2A4C17AD139D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B519F442-C99C-4170-9901-2A4C17AD139D}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement" sheetId="1" r:id="rId1"/>
     <sheet name="Options" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="CIQWBGuid" hidden="1">"Copy of Automation - SQL to Excel.xlsx"</definedName>
+    <definedName name="IQ_CH">110000</definedName>
+    <definedName name="IQ_CQ">5000</definedName>
+    <definedName name="IQ_CY">10000</definedName>
+    <definedName name="IQ_DAILY">500000</definedName>
+    <definedName name="IQ_DNTM" hidden="1">700000</definedName>
+    <definedName name="IQ_FH">100000</definedName>
+    <definedName name="IQ_FQ">500</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_FY">1000</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTM">2000</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_MONTH">15000</definedName>
+    <definedName name="IQ_MTD" hidden="1">800000</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44266.3118518519</definedName>
+    <definedName name="IQ_NTM">6000</definedName>
+    <definedName name="IQ_QTD" hidden="1">750000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_WEEK">50000</definedName>
+    <definedName name="IQ_YTD">3000</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>Factors/Parameters through which data can be extracted</t>
   </si>
@@ -218,12 +252,27 @@
   <si>
     <t>17 tables apprx.,searching with Companyrelid</t>
   </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>CompanyRelID</t>
+  </si>
+  <si>
+    <t>KI and KP</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,8 +295,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +323,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -411,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -482,6 +545,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -800,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA12240-CA52-430D-A50E-4953ED5C76D7}">
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1032,7 +1101,7 @@
   <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,4 +1325,86 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7295CD4-FD44-4238-85A4-3CDFDFAD3901}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>32332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>23112</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{63BBC50B-8A8D-4CAF-8005-04BA33BDB543}">
+      <formula1>$F$1:$F$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DSA/Practice/Copy of Automation - SQL to Excel.xlsx
+++ b/DSA/Practice/Copy of Automation - SQL to Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spgl-my.sharepoint.com/personal/anmole_dewan_spglobal_com/Documents/Documents/GitHub/Data-Science/Assignments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spgl-my.sharepoint.com/personal/anmole_dewan_spglobal_com/Documents/Documents/GitHub/Data-Science/DSA/Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="58" documentId="8_{01510084-ABBD-4F3B-B542-ECB682450F22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CD1487F8-AA32-449C-A279-AC46DE142EDC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B519F442-C99C-4170-9901-2A4C17AD139D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B519F442-C99C-4170-9901-2A4C17AD139D}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement" sheetId="1" r:id="rId1"/>
@@ -538,6 +538,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -545,12 +551,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA12240-CA52-430D-A50E-4953ED5C76D7}">
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1111,16 +1111,16 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-      <c r="F2" s="31" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+      <c r="F2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="26">
@@ -1331,7 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7295CD4-FD44-4238-85A4-3CDFDFAD3901}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1342,7 +1342,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>38</v>
       </c>
       <c r="F1" t="s">
@@ -1350,7 +1350,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="32" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
